--- a/GROUP3.xlsx
+++ b/GROUP3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="154">
   <si>
     <t>Sr No.</t>
   </si>
@@ -296,9 +296,6 @@
   </si>
   <si>
     <t xml:space="preserve">Remarks/Test Data - Reference contract no </t>
-  </si>
-  <si>
-    <t>Payment</t>
   </si>
   <si>
     <t>FIN_LMS_MND_AD_SC001</t>
@@ -637,151 +634,6 @@
     <t>Scenario  ID</t>
   </si>
   <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment mode-Cash
-1. System provides an option to execute the payment (including excess money/disbursement) under
-following modes:
-o CASH
-o CHEQUE
-o DRAFT
-o ECS(RTGS,NEFT,NACH)
-</t>
-  </si>
-  <si>
-    <t>1.12.3</t>
-  </si>
-  <si>
-    <t>Payment Download
-Payment Upload</t>
-  </si>
-  <si>
-    <t>1.12.4</t>
-  </si>
-  <si>
-    <t>Payment Instrument verification
-Payment Revalidation
-Payment cancellation</t>
-  </si>
-  <si>
-    <t>Payment mode-ECS-Internal Transfer
-1. System provides an option to execute the payment (including excess money/disbursement) under
-following modes:
-o Internal Transfer</t>
-  </si>
-  <si>
-    <t>Fin_LMS_PAY_ECS_IT_SC060
-TO
-Fin_LMS_PAY_ECS_IT_SC060</t>
-  </si>
-  <si>
-    <t>Disbursal-cancellation</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Loan Cancellation</t>
-  </si>
-  <si>
-    <t>1.26.3</t>
-  </si>
-  <si>
-    <t>Loan Cancellation:
-1.Tenure change
-2.Supplier/Dealer change
-3.primary applicant change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN_LMS_LCAN__SC001
-to
-FIN_LMS_LCAN__SC003;
-FIN_LMS_LCAN__SC005
-to
-FIN_LMS_LCAN__SC008;
-FIN_LMS_LCAN__SC010
-to
-FIN_LMS_LCAN__SC013
-</t>
-  </si>
-  <si>
-    <t>1.26.4</t>
-  </si>
-  <si>
-    <t>Loan cancellation and Refund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FIN_LMS_LCAN__SC004
-and
-FIN_LMS_LCAN__SC009</t>
-  </si>
-  <si>
-    <t>Mandate Entry</t>
-  </si>
-  <si>
-    <t>1.10.4</t>
-  </si>
-  <si>
-    <t>1.Mandate Entry
-2.Mandate Cap amount
-3.Mandate Blocking
-4.Mandate Unblocking</t>
-  </si>
-  <si>
-    <t>FIN_LMS_MND _SC001 
-to
-FIN_LMS_MND_SC023</t>
-  </si>
-  <si>
-    <t>Repayment</t>
-  </si>
-  <si>
-    <t>Repayment- Picklist</t>
-  </si>
-  <si>
-    <t>FIN_LMS_Repayment_Picklist_SC001 To SC004</t>
-  </si>
-  <si>
-    <t>Receipt- Repayment modes</t>
-  </si>
-  <si>
-    <t>1.9.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Following modes of repayment are used in LMS against single/multi Loan:
-o Cash
-o Cheque/Draft
-o Electronic – Internal Transfer
-o Electronic – RTGS/NEFT
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Fin_LMS_RCP_DRF_SC001
-to
-Fin_LMS_RCP_DEL_SC031</t>
-  </si>
-  <si>
-    <t>Fin_LMS_PAY_CASH_SC001
- TO
-Fin_LMS_PAY_CASH_SC005,
-Fin_LMS_PAY_CHQ_SC001,
-Fin_LMS_PAY_DRAFT_SC001,
-Fin_LMS_PAY_RTGS_SC001,
-Fin_LMS_PAY_NEFT_SC001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fin_LMS_DWN_PAY_SC001
-Fin_LMS_PAY_UPLD_SC001
-</t>
-  </si>
-  <si>
-    <t>Fin_LMS_PAY_VER_SC001
-Fin_LMS_PAY_CAN_SC059</t>
-  </si>
-  <si>
     <t>Defect Id</t>
   </si>
   <si>
@@ -798,9 +650,6 @@
   </si>
   <si>
     <t>USC</t>
-  </si>
-  <si>
-    <t>USC_SC001_TC001</t>
   </si>
   <si>
     <t xml:space="preserve">When the URL is entered, the Web page is displayed
@@ -830,6 +679,20 @@
   </si>
   <si>
     <t>CD_USC_SC001</t>
+  </si>
+  <si>
+    <t>CD_USC_SC001_TC001</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>US.001.001</t>
+  </si>
+  <si>
+    <t>Home Page
+1. See coaching dojo homepage when the given URL is entered.
+2. User should be able to read purpose, principles and how it works.</t>
   </si>
 </sst>
 </file>
@@ -2989,48 +2852,48 @@
     </row>
     <row r="2" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="121"/>
+    </row>
+    <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="121"/>
-    </row>
-    <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="78" t="s">
+      <c r="C3" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="79" t="s">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="73" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="73" t="s">
+      <c r="C4" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="74" t="s">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="75" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="75" t="s">
+      <c r="C5" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="76" t="s">
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="118" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="118" t="s">
+      <c r="C6" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="76" t="s">
+    </row>
+    <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="119" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="119" t="s">
+      <c r="C7" s="77" t="s">
         <v>115</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3135,8 +2998,8 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3165,33 +3028,33 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="49"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="49"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -3207,7 +3070,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="122"/>
       <c r="C13" s="122"/>
@@ -3221,21 +3084,21 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
@@ -3255,7 +3118,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="122"/>
       <c r="C19" s="122"/>
@@ -3269,16 +3132,16 @@
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3392,7 +3255,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3789,7 +3652,7 @@
     </row>
     <row r="3" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="123" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="124"/>
       <c r="E3" s="124"/>
@@ -3798,7 +3661,7 @@
     </row>
     <row r="4" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="126" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="D4" s="127"/>
       <c r="E4" s="127"/>
@@ -3814,19 +3677,19 @@
     </row>
     <row r="6" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="E6" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="F6" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="G6" s="43" t="s">
         <v>134</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="150" customHeight="1" x14ac:dyDescent="0.35">
@@ -3834,168 +3697,80 @@
         <v>1</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C8" s="22">
-        <v>2</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C9" s="22">
-        <v>3</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C10" s="22">
-        <v>4</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="C11" s="22">
-        <v>5</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" ht="203" x14ac:dyDescent="0.35">
-      <c r="C12" s="22">
-        <v>6</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" s="26" t="s">
+      <c r="G7" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="C13" s="22">
-        <v>7</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="C14" s="22">
-        <v>8</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>156</v>
-      </c>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C8" s="22"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="22"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="22"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="27">
-        <v>9</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>157</v>
-      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="22">
-        <v>10</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>163</v>
-      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C17" s="22"/>
@@ -4242,7 +4017,7 @@
   </sheetPr>
   <dimension ref="A1:IR986"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -4280,7 +4055,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -4310,7 +4085,7 @@
         <v>19</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>20</v>
@@ -4328,34 +4103,34 @@
     </row>
     <row r="2" spans="1:252" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="G2" s="84" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="J2" s="132" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="10"/>
@@ -25224,7 +24999,7 @@
   <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25275,26 +25050,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="132" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="G2" s="132" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="115" customFormat="1" x14ac:dyDescent="0.35">
@@ -25687,7 +25462,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="9"/>
@@ -25702,7 +25477,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="9"/>
@@ -25717,7 +25492,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="9"/>
@@ -25732,7 +25507,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="9"/>
@@ -25747,7 +25522,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="9"/>
@@ -25762,7 +25537,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="9"/>
@@ -25777,7 +25552,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="9"/>
@@ -25792,7 +25567,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="9"/>
@@ -25807,7 +25582,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="9"/>
@@ -25822,7 +25597,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="9"/>
@@ -25837,7 +25612,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="9"/>
@@ -25852,7 +25627,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="9"/>
@@ -25867,7 +25642,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
@@ -25882,7 +25657,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="9"/>
@@ -25897,7 +25672,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="9"/>
@@ -25912,7 +25687,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="9"/>
@@ -25927,7 +25702,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="9"/>
@@ -25942,7 +25717,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="9"/>
@@ -25957,7 +25732,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="9"/>
@@ -25972,7 +25747,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="9"/>
@@ -25987,7 +25762,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="9"/>
@@ -26002,7 +25777,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="9"/>
@@ -26017,7 +25792,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="9"/>
@@ -26032,7 +25807,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="9"/>
@@ -26047,7 +25822,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="9"/>
@@ -26062,7 +25837,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="9"/>
@@ -26077,7 +25852,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="9"/>
@@ -26092,7 +25867,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
@@ -26107,7 +25882,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="9"/>
@@ -26122,7 +25897,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="9"/>
@@ -26137,7 +25912,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="9"/>
@@ -26152,7 +25927,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="9"/>
@@ -26167,7 +25942,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
@@ -26182,7 +25957,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="9"/>
@@ -26197,7 +25972,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="9"/>
@@ -26212,7 +25987,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="9"/>
@@ -26227,7 +26002,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="9"/>
@@ -26242,7 +26017,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
@@ -26257,7 +26032,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="9"/>
@@ -26272,7 +26047,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="9"/>
@@ -26287,7 +26062,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="9"/>
@@ -26302,7 +26077,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="9"/>
@@ -26317,7 +26092,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="9"/>
@@ -26332,7 +26107,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="9"/>
@@ -26347,7 +26122,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="9"/>
@@ -26362,7 +26137,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="9"/>
@@ -26377,7 +26152,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="9"/>
@@ -26392,7 +26167,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="9"/>
@@ -26407,7 +26182,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="9"/>
@@ -26422,7 +26197,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="9"/>
@@ -26437,7 +26212,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="9"/>
@@ -26452,7 +26227,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="9"/>
@@ -26467,7 +26242,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="9"/>
@@ -26482,7 +26257,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="9"/>
@@ -26497,7 +26272,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="9"/>
@@ -26512,7 +26287,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="9"/>
@@ -26527,7 +26302,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="9"/>
@@ -26542,7 +26317,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="9"/>
@@ -26557,7 +26332,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="9"/>
@@ -26572,7 +26347,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="9"/>
@@ -26587,7 +26362,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="9"/>
@@ -26602,7 +26377,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="9"/>
@@ -26617,7 +26392,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="9"/>
@@ -26632,7 +26407,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C101" s="12"/>
       <c r="D101" s="9"/>
@@ -26647,7 +26422,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="9"/>
@@ -26662,7 +26437,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C103" s="12"/>
       <c r="D103" s="9"/>
@@ -26677,7 +26452,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="9"/>
@@ -26692,7 +26467,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="9"/>
@@ -26707,7 +26482,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="9"/>
@@ -26722,7 +26497,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="9"/>
@@ -26737,7 +26512,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="9"/>
@@ -26752,7 +26527,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="9"/>
@@ -26767,7 +26542,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="9"/>
@@ -26782,7 +26557,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="9"/>
@@ -26797,7 +26572,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="9"/>
@@ -26812,7 +26587,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="9"/>
@@ -26827,7 +26602,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="9"/>
@@ -26842,7 +26617,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="9"/>
@@ -26857,7 +26632,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="9"/>
@@ -26872,7 +26647,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="9"/>
@@ -26887,7 +26662,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="9"/>
@@ -26902,7 +26677,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="9"/>
@@ -26917,7 +26692,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="9"/>
